--- a/biology/Histoire de la zoologie et de la botanique/Fernand_Angel/Fernand_Angel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fernand_Angel/Fernand_Angel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clément Fernand Angel, né le 2 février 1881 à Douzy et mort le 13 juillet 1950 à Paris, est un herpétologiste français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un peintre, Fernand Angel naît le 2 février 1881 à Douzy[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un peintre, Fernand Angel naît le 2 février 1881 à Douzy.
 Il a travaillé au Muséum national d'histoire naturelle de Paris à partir de 1905 en tant que préparateur assistant, sous la direction de Léon Vaillant (1834-1914). Il a travaillé au côté de François Mocquard (1834-1917) à Paris, puis de George Albert Boulenger (1858-1937) à Londres.
 Il s'est particulièrement intéressé à l'herpétofaune d'Afrique et d'Asie, en particulier celle des colonies françaises de l'époque, en Afrique, à Madagascar et en Indochine.
-Il meurt le 13 juillet 1950 en son domicile dans le 14e arrondissement de Paris[2]. Il est inhumé le 17 juillet 1950 au Cimetière de Douzy[3].
+Il meurt le 13 juillet 1950 en son domicile dans le 14e arrondissement de Paris. Il est inhumé le 17 juillet 1950 au Cimetière de Douzy.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rhabdophis angeli (Bourret, 1934)
 Geotrypetes angeli Parker, 1936
@@ -578,7 +594,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acanthodactylus orientalis Angel, 1936
@@ -665,7 +683,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fernand Angel a publié des ouvrages techniques, en particulier liés à la classification des reptiles, mais aussi des ouvrages plus vulgarisateurs.
 Les serpents de l'Afrique Occidentale Française, 1932
